--- a/Test_temp.xlsx
+++ b/Test_temp.xlsx
@@ -339,7 +339,7 @@
   <dimension ref="B2:B5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -351,12 +351,12 @@
     </row>
     <row r="3" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B3">
-        <v>2</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B4">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
     <row r="5" spans="2:2" x14ac:dyDescent="0.25">
